--- a/biology/Médecine/Abu_al-Hasan_al-Tabari/Abu_al-Hasan_al-Tabari.xlsx
+++ b/biology/Médecine/Abu_al-Hasan_al-Tabari/Abu_al-Hasan_al-Tabari.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abū al-Ḥasan al-Ṭabarī (ابو الحسن الطبري), né au Tabaristan et mort vers 985, est un médecin perse du Xe siècle, qui officia notamment sous le sultan d'Ispahan Rukn ad-Dawla[1].
-Il est célèbre pour son ouvrage Traitements hippocratiques (المعالاجات البقرطية (al-muʿālajāt al-buqrāṭiyya?)), influencé par Hippocrate, Galien et Hunayn ibn Ishaq[1], où il est notamment le premier à décrire l'origine parasitaire et le traitement de la gale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abū al-Ḥasan al-Ṭabarī (ابو الحسن الطبري), né au Tabaristan et mort vers 985, est un médecin perse du Xe siècle, qui officia notamment sous le sultan d'Ispahan Rukn ad-Dawla.
+Il est célèbre pour son ouvrage Traitements hippocratiques (المعالاجات البقرطية (al-muʿālajāt al-buqrāṭiyya?)), influencé par Hippocrate, Galien et Hunayn ibn Ishaq, où il est notamment le premier à décrire l'origine parasitaire et le traitement de la gale.
 </t>
         </is>
       </c>
